--- a/Team-Data/2008-09/3-22-2008-09.xlsx
+++ b/Team-Data/2008-09/3-22-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -798,13 +865,13 @@
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
@@ -872,34 +939,34 @@
         <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -914,19 +981,19 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,16 +1023,16 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -980,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -998,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1144,31 +1211,31 @@
         <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.449</v>
+        <v>0.457</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1245,52 +1312,52 @@
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1317,22 +1384,22 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>11</v>
@@ -1359,10 +1426,10 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -1397,61 +1464,61 @@
         <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
         <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>5.4</v>
@@ -1463,16 +1530,16 @@
         <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,40 +1563,40 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW6" t="n">
         <v>7</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
@@ -1541,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1675,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>27</v>
@@ -1699,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1708,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
@@ -1717,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1851,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1881,10 +1948,10 @@
         <v>12</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.454</v>
@@ -1967,28 +2034,28 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
         <v>20.7</v>
@@ -1997,13 +2064,13 @@
         <v>11.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -2015,13 +2082,13 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2033,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2057,7 +2124,7 @@
         <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2066,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2081,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.46</v>
@@ -2152,7 +2219,7 @@
         <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
         <v>23.1</v>
@@ -2167,10 +2234,10 @@
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
@@ -2191,16 +2258,16 @@
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.6</v>
+        <v>108.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2239,19 +2306,19 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
       </c>
       <c r="AS10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU10" t="n">
         <v>13</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>14</v>
       </c>
       <c r="AV10" t="n">
         <v>22</v>
@@ -2272,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.653</v>
+        <v>0.648</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
         <v>35.9</v>
       </c>
       <c r="J11" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.452</v>
@@ -2331,7 +2398,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.374</v>
@@ -2343,13 +2410,13 @@
         <v>23.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
         <v>42.8</v>
@@ -2376,7 +2443,7 @@
         <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>4</v>
@@ -2391,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2418,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2436,28 +2503,28 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
         <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
         <v>17.2</v>
@@ -2707,25 +2774,25 @@
         <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T13" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>5.9</v>
@@ -2734,37 +2801,37 @@
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2773,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>21</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>16</v>
@@ -2794,25 +2861,25 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.794</v>
+        <v>0.797</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,58 +2944,58 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2961,19 +3028,19 @@
         <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,13 +3055,13 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,13 +3207,13 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.536</v>
+        <v>0.529</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,49 +3299,49 @@
         <v>37.1</v>
       </c>
       <c r="J16" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" t="n">
         <v>0.761</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W16" t="n">
         <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y16" t="n">
         <v>4.1</v>
@@ -3283,16 +3350,16 @@
         <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
         <v>98.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,22 +3380,22 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3358,13 +3425,13 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>0.443</v>
+        <v>0.437</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3426,70 +3493,70 @@
         <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
         <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,10 +3571,10 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
@@ -3516,7 +3583,7 @@
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>24</v>
@@ -3528,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>13</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,13 +3663,13 @@
         <v>36.7</v>
       </c>
       <c r="J18" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
         <v>18.4</v>
@@ -3614,10 +3681,10 @@
         <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
@@ -3626,7 +3693,7 @@
         <v>29.9</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
         <v>20.3</v>
@@ -3641,7 +3708,7 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z18" t="n">
         <v>22</v>
@@ -3650,13 +3717,13 @@
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-4.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
         <v>15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3680,7 +3747,7 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
@@ -3692,10 +3759,10 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3704,13 +3771,13 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3725,10 +3792,10 @@
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -3760,49 +3827,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
         <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="O19" t="n">
         <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q19" t="n">
         <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S19" t="n">
         <v>29.4</v>
@@ -3811,40 +3878,40 @@
         <v>39.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V19" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W19" t="n">
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3856,31 +3923,31 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS19" t="n">
         <v>21</v>
@@ -3889,19 +3956,19 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>18.4</v>
@@ -3981,16 +4048,16 @@
         <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U20" t="n">
         <v>19.7</v>
@@ -4005,25 +4072,25 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z20" t="n">
         <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
@@ -4041,13 +4108,13 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>10</v>
       </c>
       <c r="AM20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
         <v>14</v>
@@ -4068,10 +4135,10 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4080,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
@@ -4253,13 +4320,13 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>0.286</v>
+        <v>0.275</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.448</v>
@@ -4336,7 +4403,7 @@
         <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
@@ -4345,13 +4412,13 @@
         <v>25.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R22" t="n">
         <v>12.5</v>
       </c>
       <c r="S22" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T22" t="n">
         <v>42.9</v>
@@ -4360,7 +4427,7 @@
         <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4381,28 +4448,28 @@
         <v>97.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>24</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
@@ -4423,19 +4490,19 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT22" t="n">
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4623,10 +4690,10 @@
         <v>16</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
         <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.515</v>
+        <v>0.507</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
@@ -4700,7 +4767,7 @@
         <v>13.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.319</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
         <v>19.3</v>
@@ -4709,25 +4776,25 @@
         <v>26.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S24" t="n">
         <v>29.2</v>
       </c>
       <c r="T24" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>5.2</v>
@@ -4742,13 +4809,13 @@
         <v>21.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,13 +4830,13 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4790,13 +4857,13 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="n">
         <v>22</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4811,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4972,10 +5039,10 @@
         <v>23</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
@@ -4996,13 +5063,13 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.629</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
         <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
@@ -5097,43 +5164,43 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,19 +5209,19 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
@@ -5166,28 +5233,28 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>0.214</v>
+        <v>0.217</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5243,7 +5310,7 @@
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N27" t="n">
         <v>0.364</v>
@@ -5270,19 +5337,19 @@
         <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W27" t="n">
         <v>7.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA27" t="n">
         <v>21.3</v>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5318,10 +5385,10 @@
         <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
@@ -5336,16 +5403,16 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>29</v>
@@ -5360,7 +5427,7 @@
         <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>11</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="n">
         <v>45</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.652</v>
+        <v>0.662</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5419,13 +5486,13 @@
         <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M28" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.392</v>
@@ -5440,16 +5507,16 @@
         <v>0.763</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T28" t="n">
         <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>12</v>
@@ -5458,7 +5525,7 @@
         <v>5.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5470,13 +5537,13 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,13 +5552,13 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5503,10 +5570,10 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.357</v>
+        <v>0.348</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>80.09999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K29" t="n">
         <v>0.456</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M29" t="n">
         <v>15.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.827</v>
       </c>
       <c r="R29" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
@@ -5646,37 +5713,37 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.5</v>
+        <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -5685,16 +5752,16 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5724,16 +5791,16 @@
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
@@ -5858,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5888,7 +5955,7 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>23</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-22-2008-09</t>
+          <t>2009-03-22</t>
         </is>
       </c>
     </row>
